--- a/JS-Frameworks-Self-Evaluation-Protocol.xlsx
+++ b/JS-Frameworks-Self-Evaluation-Protocol.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>Days Commit in GitHub</t>
   </si>
@@ -639,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:E10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,13 +800,15 @@
       <c r="B16" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="D16" s="5">
         <v>10</v>
       </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
         <v>38</v>
       </c>
@@ -818,7 +820,7 @@
       </c>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="s">
         <v>39</v>
       </c>
@@ -830,7 +832,7 @@
       </c>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
         <v>40</v>
       </c>
@@ -842,7 +844,7 @@
       </c>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="13" t="s">
         <v>41</v>
       </c>
@@ -854,7 +856,7 @@
       </c>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="13" t="s">
         <v>42</v>
       </c>
@@ -866,11 +868,13 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="D22" s="5">
         <v>10</v>
       </c>
@@ -912,7 +916,9 @@
       <c r="B26" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="5"/>
+      <c r="C26" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="D26" s="5">
         <v>10</v>
       </c>
@@ -922,7 +928,9 @@
       <c r="B27" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="5"/>
+      <c r="C27" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="D27" s="5">
         <v>10</v>
       </c>
@@ -952,7 +960,9 @@
       <c r="B30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="5"/>
+      <c r="C30" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="D30" s="5">
         <v>10</v>
       </c>
@@ -1024,7 +1034,9 @@
       <c r="B37" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="7"/>
+      <c r="C37" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="D37" s="7">
         <v>5</v>
       </c>

--- a/JS-Frameworks-Self-Evaluation-Protocol.xlsx
+++ b/JS-Frameworks-Self-Evaluation-Protocol.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
   <si>
     <t>Days Commit in GitHub</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>TODO</t>
   </si>
 </sst>
 </file>
@@ -629,7 +632,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -640,7 +643,7 @@
   <dimension ref="B2:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,7 +899,9 @@
       <c r="B24" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="5"/>
+      <c r="C24" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="D24" s="5">
         <v>5</v>
       </c>
@@ -944,7 +949,9 @@
       <c r="D28" s="5">
         <v>5</v>
       </c>
-      <c r="E28" s="5"/>
+      <c r="E28" s="5" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
@@ -954,7 +961,9 @@
       <c r="D29" s="5">
         <v>5</v>
       </c>
-      <c r="E29" s="5"/>
+      <c r="E29" s="5" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
@@ -996,7 +1005,9 @@
       <c r="B33" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="5"/>
+      <c r="C33" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="D33" s="5">
         <v>5</v>
       </c>
@@ -1006,7 +1017,9 @@
       <c r="B34" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="5"/>
+      <c r="C34" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="D34" s="5">
         <v>10</v>
       </c>
@@ -1060,7 +1073,9 @@
       <c r="D39" s="7">
         <v>5</v>
       </c>
-      <c r="E39" s="7"/>
+      <c r="E39" s="7" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
@@ -1070,7 +1085,9 @@
       <c r="D40" s="7">
         <v>5</v>
       </c>
-      <c r="E40" s="7"/>
+      <c r="E40" s="7" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
@@ -1080,7 +1097,9 @@
       <c r="D41" s="7">
         <v>5</v>
       </c>
-      <c r="E41" s="7"/>
+      <c r="E41" s="7" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
